--- a/Sprint 1/Package 1/Documentation/P01-JE-06_Jeu_etc-V2.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01-JE-06_Jeu_etc-V2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\Projet_v2\Sprint 1\Package 1\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="633" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="633" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tblMode" sheetId="1" r:id="rId1"/>
@@ -1539,10 +1544,10 @@
     <t>Jeu de karting de Nintendo</t>
   </si>
   <si>
-    <t>Jeu de collection d'équpement</t>
-  </si>
-  <si>
     <t>Jeu de hockey</t>
+  </si>
+  <si>
+    <t>Jeu de collection d'équipement</t>
   </si>
 </sst>
 </file>
@@ -1979,7 +1984,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4800,8 +4805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5047,7 +5052,7 @@
         <v>369</v>
       </c>
       <c r="C10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5073,7 +5078,7 @@
         <v>384</v>
       </c>
       <c r="C11" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5099,7 +5104,7 @@
         <v>374</v>
       </c>
       <c r="C12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5125,7 +5130,7 @@
         <v>375</v>
       </c>
       <c r="C13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5151,7 +5156,7 @@
         <v>376</v>
       </c>
       <c r="C14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5177,7 +5182,7 @@
         <v>377</v>
       </c>
       <c r="C15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5203,7 +5208,7 @@
         <v>378</v>
       </c>
       <c r="C16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -5229,7 +5234,7 @@
         <v>379</v>
       </c>
       <c r="C17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5572,7 +5577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -5963,8 +5968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H36"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
